--- a/NEW HR/PEPA, ARIEL.xlsx
+++ b/NEW HR/PEPA, ARIEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -731,9 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -743,17 +740,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,247 +769,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1251,6 +1010,247 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1282,25 +1282,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K169" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K169" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1312,25 +1312,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1643,10 +1643,10 @@
   </sheetPr>
   <dimension ref="A2:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,64 +1668,64 @@
       <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>37181</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -1758,18 +1758,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1826,7 +1826,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3224,15 +3224,19 @@
       <c r="K77" s="22"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="41">
+        <v>44986</v>
+      </c>
       <c r="B78" s="22"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="42"/>
       <c r="E78" s="10"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="15" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="15">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="10"/>
@@ -4697,17 +4701,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4742,10 +4746,10 @@
   </sheetPr>
   <dimension ref="A2:K154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,64 +4771,64 @@
       <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>37181</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -4857,18 +4861,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4925,7 +4929,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>159.708</v>
+        <v>158.708</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -5943,7 +5947,9 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="B56" s="22"/>
       <c r="C56" s="15"/>
       <c r="D56" s="42"/>
@@ -5956,17 +5962,25 @@
       <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="C57" s="15"/>
       <c r="D57" s="42"/>
       <c r="E57" s="10"/>
       <c r="F57" s="22"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="42"/>
+      <c r="H57" s="42">
+        <v>1</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="22"/>
+      <c r="K57" s="46">
+        <v>45033</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>

--- a/NEW HR/PEPA, ARIEL.xlsx
+++ b/NEW HR/PEPA, ARIEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>7/12-14/23</t>
   </si>
 </sst>
 </file>
@@ -734,17 +737,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -754,6 +754,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1646,7 +1649,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,14 +1679,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1695,16 +1698,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>37181</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1718,14 +1721,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -1758,18 +1761,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1816,7 +1819,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>62.5</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1826,7 +1829,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3244,15 +3247,19 @@
       <c r="K78" s="22"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
+      <c r="A79" s="41">
+        <v>45017</v>
+      </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="42"/>
       <c r="E79" s="10"/>
       <c r="F79" s="22"/>
-      <c r="G79" s="15" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="15">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="42"/>
       <c r="I79" s="10"/>
@@ -3260,15 +3267,19 @@
       <c r="K79" s="22"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="41">
+        <v>45047</v>
+      </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="42"/>
       <c r="E80" s="10"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="15" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="15">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="10"/>
@@ -3276,15 +3287,19 @@
       <c r="K80" s="22"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="41">
+        <v>45078</v>
+      </c>
       <c r="B81" s="22"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="42"/>
       <c r="E81" s="10"/>
       <c r="F81" s="22"/>
-      <c r="G81" s="15" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="15">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="10"/>
@@ -3292,7 +3307,9 @@
       <c r="K81" s="22"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="41">
+        <v>45108</v>
+      </c>
       <c r="B82" s="22"/>
       <c r="C82" s="15"/>
       <c r="D82" s="42"/>
@@ -4701,17 +4718,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4749,7 +4766,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4779,14 +4796,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -4798,16 +4815,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>37181</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -4821,14 +4838,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -4861,18 +4878,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4919,7 +4936,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.957999999999998</v>
+        <v>67.957999999999998</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -5983,17 +6000,25 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="41">
+        <v>45108</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="42"/>
+      <c r="D58" s="42">
+        <v>3</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="22"/>
       <c r="G58" s="15"/>
       <c r="H58" s="42"/>
       <c r="I58" s="10"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="22"/>
+      <c r="K58" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
